--- a/pred_ohlcv/54_21/2019-10-26 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 FNB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>176599.7335</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>176599.7335</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-162410.3105</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-242252.6102999999</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-242252.6102999999</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-242252.6102999999</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-242241.9949999999</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-242241.9949999999</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-242241.9949999999</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-244655.3999999999</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-244645.3999999999</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>86081.88009465398</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>86081.88009465398</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>86110.64819465399</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>86110.64819465399</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>2426.686794653986</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>199860.962094654</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>144487.878194654</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>32227.73119465398</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-14927.79380534602</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-12852.88500534602</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>337332.4092910569</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>425529.8544910569</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>425529.8544910569</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>684387.969902651</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>672583.0238026511</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>871335.1307026511</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>871335.1307026511</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>1074381.342802651</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>1074381.342802651</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>1074491.342802651</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>830766.5582026512</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>830766.5582026512</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>830766.5582026512</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>830766.5582026512</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>830766.5582026512</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>830776.5582026512</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>830776.5582026512</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>830816.2010026512</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>830816.2010026512</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>830816.2010026512</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>830826.2010026512</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>830826.2010026512</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>767746.8783026512</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>862970.1617026512</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>827466.2269026511</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>827466.2269026511</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-772268.8638973488</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-772258.8638973488</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-844722.6320937516</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-844712.6320937516</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-844712.6320937516</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-844712.6320937516</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-844712.6320937516</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1011669.817193752</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1834026.611693754</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-2020644.065893754</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-2164057.163093754</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-2164057.163093754</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-2164057.163093754</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-2164057.163093754</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1815884.395193754</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-1815884.395193754</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-1815884.395193754</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-1795384.395193754</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-1795384.395193754</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-1271768.370193754</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-968269.1707937543</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-1226110.931574873</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1966456.293074873</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-1634466.502874873</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-2247296.251274874</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-1713547.903606342</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-1938507.751597251</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-1938507.751597251</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-1938507.751597251</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-1735213.562497251</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-1735213.562497251</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-1735213.562497251</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-2030224.630497251</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-2265412.453597251</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-2265401.453597251</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-2265401.453597251</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-2265401.453597251</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-2265401.453597251</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-2265401.453597251</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-2265401.453597251</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-2378659.628397251</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-2378659.628397251</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-2378659.628397251</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-2378659.628397251</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-2378659.628397251</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-3119715.059597251</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-3119715.059597251</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-8757607.53349725</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-9051425.05169725</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-9378467.594197251</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-9196975.217097251</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-9196975.217097251</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-10334378.86509725</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-10795261.08399725</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-10795216.08399725</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-11057699.46139725</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-11057699.46139725</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-11007302.58999725</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-11060293.82229725</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-10951888.26929725</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-10951888.26929725</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-10992643.10149725</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-11268689.18909725</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-11261337.43739725</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-11261337.43739725</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-10811231.89689725</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-10902134.13609725</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-10624649.12199725</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-10967093.15219725</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-10967093.15219725</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-10967093.15219725</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-11577378.87599725</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-11577378.87599725</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-11577378.87599725</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-11060702.24379725</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-9483078.656746546</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-9483078.656746546</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-9572017.390646545</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-9572017.390646545</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-10525107.66484655</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-10414899.88334654</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-10414899.88334654</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-10423184.42794655</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-10423184.42794655</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-9449746.118433259</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-9483380.13243326</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-9519672.87243326</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-9519672.87243326</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-9327011.76703326</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-9326678.76703326</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-10971483.35923326</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-10971483.35923326</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-10971483.35923326</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-10971483.35923326</v>
       </c>
       <c r="H491">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-10971483.35923326</v>
       </c>
       <c r="H492">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-10971483.35923326</v>
       </c>
       <c r="H493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-10971483.35923326</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-10437042.16403326</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-9472662.33313326</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-9663537.39333326</v>
       </c>
       <c r="H498">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-9663537.39333326</v>
       </c>
       <c r="H499">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-9663537.39333326</v>
       </c>
       <c r="H500">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-9663537.39333326</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-9663537.39333326</v>
       </c>
       <c r="H502">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-10028596.60733326</v>
       </c>
       <c r="H503">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-10546818.60463326</v>
       </c>
       <c r="H504">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-10546818.60463326</v>
       </c>
       <c r="H505">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-10546818.60463326</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-10546818.60463326</v>
       </c>
       <c r="H507">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-10546818.60463326</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-10546818.60463326</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-10546818.60463326</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-10546818.60463326</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-10546818.60463326</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-10546818.60463326</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-10448091.59023326</v>
       </c>
       <c r="H514">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-10448091.59023326</v>
       </c>
       <c r="H515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-10448011.80303326</v>
       </c>
       <c r="H519">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-10517527.51353326</v>
       </c>
       <c r="H522">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-10517527.51353326</v>
       </c>
       <c r="H523">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-10362927.90793044</v>
       </c>
       <c r="H524">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-10135988.74524235</v>
       </c>
       <c r="H525">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-10219955.04804235</v>
       </c>
       <c r="H526">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-10219955.04804235</v>
       </c>
       <c r="H528">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-10223295.56084235</v>
       </c>
       <c r="H530">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-10223295.56084235</v>
       </c>
       <c r="H531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-10223295.56084235</v>
       </c>
       <c r="H532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-10223295.56084235</v>
       </c>
       <c r="H533">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-10257745.99554235</v>
       </c>
       <c r="H534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-10257686.20684235</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-10528857.55484235</v>
       </c>
       <c r="H538">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-10528797.76614235</v>
       </c>
       <c r="H540">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-10621144.12314235</v>
       </c>
       <c r="H541">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-10621144.12314235</v>
       </c>
       <c r="H542">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-11258763.93794235</v>
       </c>
       <c r="H543">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-11258763.93794235</v>
       </c>
       <c r="H544">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-11258683.93794235</v>
       </c>
       <c r="H545">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-11258683.93794235</v>
       </c>
       <c r="H546">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-11007042.00954235</v>
       </c>
       <c r="H547">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-10476335.90854235</v>
       </c>
       <c r="H548">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-10476335.90854235</v>
       </c>
       <c r="H549">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-10990535.64704235</v>
       </c>
       <c r="H550">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-10964477.25544235</v>
       </c>
       <c r="H551">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-10796081.73354235</v>
       </c>
       <c r="H552">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-7535872.656363728</v>
       </c>
       <c r="H558">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-7870573.791163728</v>
       </c>
       <c r="H559">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-3671372.814283038</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-3671372.814283038</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-4430111.579483038</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-4375636.085283038</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-4451111.648183038</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-4138313.860183038</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-4138313.860183038</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-4138333.860183038</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-4138333.860183038</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-4138333.860183038</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-4480675.667483038</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-4442709.622383039</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-4442709.622383039</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-4442709.622383039</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-4442709.622383039</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-4578255.426483039</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-5035868.255383039</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-5035868.255383039</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-4964730.911183039</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-4869108.897783039</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-4869332.174983039</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-4869332.174983039</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-4749237.142283039</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-5922672.466783039</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-5919804.084683039</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-5919804.084683039</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-5613877.60288304</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-5706480.04418304</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-5706480.04418304</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-5706480.04418304</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 FNB ohlcv.xlsx
@@ -5332,7 +5332,7 @@
         <v>86081.88009465398</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>86081.88009465398</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>86110.64819465399</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>86110.64819465399</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>2426.686794653986</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>199860.962094654</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>144487.878194654</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>32227.73119465398</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-14927.79380534602</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-12852.88500534602</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>337332.4092910569</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>425529.8544910569</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>425529.8544910569</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>684387.969902651</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>672583.0238026511</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>871335.1307026511</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>871335.1307026511</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>1074381.342802651</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>1074381.342802651</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>1074491.342802651</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>830766.5582026512</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>830766.5582026512</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>830766.5582026512</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>830766.5582026512</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>830766.5582026512</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>830776.5582026512</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>830776.5582026512</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>830816.2010026512</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>830816.2010026512</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>830816.2010026512</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>830826.2010026512</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>830826.2010026512</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>767746.8783026512</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>862970.1617026512</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>827466.2269026511</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>827466.2269026511</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-772268.8638973488</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-772258.8638973488</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-844722.6320937516</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-844712.6320937516</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-844712.6320937516</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-844712.6320937516</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-844712.6320937516</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1011669.817193752</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1834026.611693754</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-2020644.065893754</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-2164057.163093754</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-2164057.163093754</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-2164057.163093754</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-2164057.163093754</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1815884.395193754</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-1815884.395193754</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-1815884.395193754</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-1795384.395193754</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-1795384.395193754</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-1271768.370193754</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-968269.1707937543</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-1226110.931574873</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1966456.293074873</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-1634466.502874873</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-2247296.251274874</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-1713547.903606342</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-1938507.751597251</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-1938507.751597251</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-1938507.751597251</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-1735213.562497251</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-1735213.562497251</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-1735213.562497251</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-2030224.630497251</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-2265412.453597251</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-2265401.453597251</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-2265401.453597251</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-2265401.453597251</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-2265401.453597251</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-2265401.453597251</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-2265401.453597251</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-2378659.628397251</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-2378659.628397251</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-2378659.628397251</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-2378659.628397251</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-2378659.628397251</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-3119715.059597251</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-3119715.059597251</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-10559108.33069725</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-10967093.15219725</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-11577378.87599725</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-11577378.87599725</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-11577378.87599725</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-11060702.24379725</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-9483078.656746546</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-9483078.656746546</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-9572017.390646545</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-9572017.390646545</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-10525107.66484655</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-10414899.88334654</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-10414899.88334654</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-10423184.42794655</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-10423184.42794655</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-9449746.118433259</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-9483380.13243326</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-9519672.87243326</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-9519672.87243326</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-9327011.76703326</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-9326678.76703326</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-9326678.76703326</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-9326678.76703326</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-9326678.76703326</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-9326678.76703326</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-9326678.76703326</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-9754781.14413326</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-10971483.35923326</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-10971483.35923326</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-10971483.35923326</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-10971483.35923326</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-10971483.35923326</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-10971483.35923326</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-10971483.35923326</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-10437042.16403326</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-9472662.33313326</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-9663537.39333326</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-9663537.39333326</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-9663537.39333326</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-9663537.39333326</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-9663537.39333326</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-9663537.39333326</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-10028596.60733326</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-10546818.60463326</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-10546818.60463326</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-10546818.60463326</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-10546818.60463326</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-10546818.60463326</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-10546818.60463326</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-10546818.60463326</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-10546818.60463326</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-10546818.60463326</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-10546818.60463326</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-10448091.59023326</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-10448011.80303326</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-10517527.51353326</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-10517527.51353326</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-10362927.90793044</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-10135988.74524235</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-10219955.04804235</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-10223295.56084235</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-10223295.56084235</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-10223295.56084235</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-10223295.56084235</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-10257745.99554235</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-10257686.20684235</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-10528857.55484235</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-10528857.55484235</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-10528857.55484235</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-10528797.76614235</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-10528797.76614235</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-10621144.12314235</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-10621144.12314235</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-11258763.93794235</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-11258763.93794235</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-11258683.93794235</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-11258683.93794235</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-11007042.00954235</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-10476335.90854235</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-10476335.90854235</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-10990535.64704235</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-10964477.25544235</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-10796081.73354235</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-10796081.73354235</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-10973359.23724235</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-9422788.152742349</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-7592593.883042349</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-7605427.490542348</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-7535872.656363728</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-7870573.791163728</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-7287208.068942348</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-3671372.814283038</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-3671372.814283038</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-3671372.814283038</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-3671372.814283038</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-4430111.579483038</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-4375636.085283038</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-4451111.648183038</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-4138313.860183038</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-4138313.860183038</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-4138333.860183038</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-4138333.860183038</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-4138333.860183038</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-4480675.667483038</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-4442709.622383039</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-4442709.622383039</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-4442709.622383039</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-4442709.622383039</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-4578255.426483039</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-5035868.255383039</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-5035868.255383039</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-4964730.911183039</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-4869108.897783039</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-4869332.174983039</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-4869332.174983039</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-4749237.142283039</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-5922672.466783039</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-5919804.084683039</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-6190737.90798304</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-6252050.83898304</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-6233926.02258304</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-6281447.542083041</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-10179618.38529904</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-10220727.25457682</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-10372242.40607682</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-10372242.40607682</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-10246494.3162546</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-10246494.3162546</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-10246494.3162546</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-10246483.3162546</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-9252031.567254597</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-9252031.567254597</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-9252031.567254597</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-9252021.567254597</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-9252021.567254597</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-9252021.567254597</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-10097852.8945546</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-10097842.8945546</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-10107062.2721546</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-10107062.2721546</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-10107062.2721546</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-10107010.6968546</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-10501948.9036546</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-10501938.9036546</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-10501938.9036546</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-10502690.7520546</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-10466847.9438546</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-10466847.9438546</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-10466847.9438546</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-10466847.9438546</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-10466847.9438546</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-10466847.9438546</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-10470836.5512546</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-10181263.2293546</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-10181263.2293546</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-10181263.2293546</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-10135319.8073546</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-10169557.49635459</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:8">
